--- a/results/mp/logistic/corona/confidence/84/stop-words-desired-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-desired-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,28 +40,31 @@
     <t>name</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>crude</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>low</t>
@@ -79,18 +82,21 @@
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>special</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
@@ -100,76 +106,82 @@
     <t>support</t>
   </si>
   <si>
-    <t>special</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>better</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
   <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
   <si>
     <t>corona</t>
@@ -530,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,10 +550,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -599,13 +611,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9210526315789473</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -617,19 +629,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -641,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -649,13 +661,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8013698630136986</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C4">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D4">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -667,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4">
         <v>0.9393939393939394</v>
@@ -699,7 +711,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7777777777777778</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C5">
         <v>28</v>
@@ -717,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -741,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -749,13 +761,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7567567567567568</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -770,16 +782,16 @@
         <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6">
         <v>0.9166666666666666</v>
       </c>
       <c r="L6">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="M6">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -791,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -799,13 +811,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6137566137566137</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C7">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.9112271540469974</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L7">
-        <v>349</v>
+        <v>54</v>
       </c>
       <c r="M7">
-        <v>349</v>
+        <v>54</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -841,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -849,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.576271186440678</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="C8">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -867,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.9017857142857143</v>
+        <v>0.9086161879895561</v>
       </c>
       <c r="L8">
-        <v>101</v>
+        <v>348</v>
       </c>
       <c r="M8">
-        <v>101</v>
+        <v>348</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -891,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -899,13 +911,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5686274509803921</v>
+        <v>0.5523255813953488</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -917,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>22</v>
+        <v>231</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.8962264150943396</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L9">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M9">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -941,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -949,13 +961,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5329457364341085</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="C10">
-        <v>275</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>275</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -967,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>241</v>
+        <v>30</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.8888888888888888</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -991,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -999,13 +1011,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3221476510067114</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C11">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1017,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8888888888888888</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1041,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1049,13 +1061,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1547619047619048</v>
+        <v>0.3288590604026846</v>
       </c>
       <c r="C12">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D12">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1067,19 +1079,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>213</v>
+        <v>100</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.8873239436619719</v>
+        <v>0.86875</v>
       </c>
       <c r="L12">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="M12">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1091,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1099,13 +1111,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1099195710455764</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C13">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D13">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1117,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>332</v>
+        <v>217</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.8828125</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L13">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="M13">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1141,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1149,89 +1161,113 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01068999028182702</v>
+        <v>0.08042895442359249</v>
       </c>
       <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>343</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D14">
-        <v>53</v>
-      </c>
-      <c r="E14">
-        <v>0.38</v>
-      </c>
-      <c r="F14">
-        <v>0.62</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>3054</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="K14">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="L14">
+        <v>31</v>
+      </c>
+      <c r="M14">
+        <v>31</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.01490602721970188</v>
+      </c>
+      <c r="C15">
+        <v>46</v>
+      </c>
+      <c r="D15">
+        <v>67</v>
+      </c>
+      <c r="E15">
+        <v>0.31</v>
+      </c>
+      <c r="F15">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>3040</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15">
         <v>0.8604651162790697</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>37</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <v>37</v>
       </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="J15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15">
-        <v>0.85625</v>
-      </c>
-      <c r="L15">
-        <v>137</v>
-      </c>
-      <c r="M15">
-        <v>137</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K16">
-        <v>0.8536585365853658</v>
+        <v>0.859375</v>
       </c>
       <c r="L16">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="M16">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1243,21 +1279,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K17">
-        <v>0.851063829787234</v>
+        <v>0.8591549295774648</v>
       </c>
       <c r="L17">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1269,21 +1305,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K18">
-        <v>0.8448275862068966</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L18">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="M18">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1295,21 +1331,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K19">
-        <v>0.82</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L19">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="M19">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1321,21 +1357,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K20">
-        <v>0.8095238095238095</v>
+        <v>0.8</v>
       </c>
       <c r="L20">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1347,21 +1383,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>0.7411764705882353</v>
+        <v>0.775</v>
       </c>
       <c r="L21">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1373,21 +1409,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>0.7291666666666666</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1399,21 +1435,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>0.725</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L23">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M23">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1430,16 +1466,16 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>0.7142857142857143</v>
+        <v>0.7264705882352941</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1451,18 +1487,18 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25">
-        <v>0.7050847457627119</v>
+        <v>0.7040816326530612</v>
       </c>
       <c r="L25">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M25">
         <v>208</v>
@@ -1474,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
         <v>87</v>
@@ -1482,25 +1518,25 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>0.7016806722689075</v>
+        <v>0.702928870292887</v>
       </c>
       <c r="L26">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M26">
         <v>168</v>
       </c>
       <c r="N26">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
         <v>71</v>
@@ -1508,16 +1544,16 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>0.6862745098039216</v>
+        <v>0.6714285714285714</v>
       </c>
       <c r="L27">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="M27">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1529,21 +1565,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>0.6702127659574468</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L28">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M28">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1560,16 +1596,16 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>0.6428571428571429</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L29">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M29">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1581,21 +1617,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>0.6404494382022472</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L30">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M30">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1607,21 +1643,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>0.6307692307692307</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L31">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1633,47 +1669,47 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>0.5068493150684932</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="L32">
+        <v>41</v>
+      </c>
+      <c r="M32">
+        <v>41</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>37</v>
-      </c>
-      <c r="M32">
-        <v>37</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>36</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1685,33 +1721,111 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.01098901098901099</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="L34">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="N34">
-        <v>0.6899999999999999</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.3100000000000001</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>3150</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K35">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="L35">
+        <v>27</v>
+      </c>
+      <c r="M35">
+        <v>27</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K36">
+        <v>0.4383561643835616</v>
+      </c>
+      <c r="L36">
+        <v>32</v>
+      </c>
+      <c r="M36">
+        <v>32</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K37">
+        <v>0.0157035175879397</v>
+      </c>
+      <c r="L37">
+        <v>50</v>
+      </c>
+      <c r="M37">
+        <v>67</v>
+      </c>
+      <c r="N37">
+        <v>0.75</v>
+      </c>
+      <c r="O37">
+        <v>0.25</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>3134</v>
       </c>
     </row>
   </sheetData>
